--- a/ImillReports/Content/shiftEnd.xlsx
+++ b/ImillReports/Content/shiftEnd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>Employee Id</x:t>
   </x:si>
@@ -46,49 +46,31 @@
     <x:t>Total Hour Worked</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelatty Elsayed Haroun Abdelmeguid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الشويخ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Yousef Hasan Amer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kamun Rashid Abdul Sattar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khalifa Abdelrahim Kamaly Abdelrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Salam Mohammad Biswas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keyoan Heidar Mazraeh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Syed Zishan Mehdi Syed Akbar Mahdi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Abouhassiba Mohamed Sayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salim Abdulkarim Shaikh Abdulkarim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mousa Ramazan Ghoubeshi Ramezani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed Aalam Akhtar Husain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shabir Mohammed Ummar Sheikh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morawala Shahrukh Sagirbhai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Haitham Nabeeh Hasan Aref</x:t>
+    <x:t>Aly Othman Aly Sorour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الادارة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mohamed Abdelrehim Abouelnaga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad saber Mohammad Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hosny Ahmed Abdelsalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wajdi Ashraf Muneer Mohammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maysara Saleh Mohammad Abdulhafedh</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -446,7 +428,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J15"/>
+  <x:dimension ref="A1:J7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -486,7 +468,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>10</x:v>
@@ -495,441 +477,185 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
+        <x:v>0.666666666666667</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>0.206574074074074</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>0.537048611111111</x:v>
+        <x:v>0.321180555555556</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I2" s="1" t="n">
-        <x:v>0.00461805555555555</x:v>
+      <x:c r="I2" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J2" s="1" t="n">
-        <x:v>0.330474537037037</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
+        <x:v>0.666666666666667</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>0.206678240740741</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>0.534583333333333</x:v>
+        <x:v>0.337997685185185</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="n">
-        <x:v>0.00708333333333333</x:v>
+        <x:v>0.00466435185185185</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J3" s="1" t="n">
-        <x:v>0.327905092592593</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
+        <x:v>0.666666666666667</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>0.206736111111111</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>0.536944444444444</x:v>
+        <x:v>0.338344907407407</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="n">
-        <x:v>0.00472222222222222</x:v>
+        <x:v>0.00501157407407407</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J4" s="1" t="n">
-        <x:v>0.330208333333333</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
+        <x:v>0.666666666666667</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>0.206828703703704</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>0.533622685185185</x:v>
+        <x:v>0.340740740740741</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="n">
-        <x:v>0.00804398148148148</x:v>
+        <x:v>0.00740740740740741</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J5" s="1" t="n">
-        <x:v>0.326793981481481</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
+        <x:v>0.666666666666667</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>0.206921296296296</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>0.53806712962963</x:v>
+        <x:v>0.340914351851852</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="n">
-        <x:v>0.00359953703703704</x:v>
+        <x:v>0.00758101851851852</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J6" s="1" t="n">
-        <x:v>0.331145833333333</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
+        <x:v>0.666666666666667</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>0.207002314814815</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>0.536608796296296</x:v>
+        <x:v>0.341689814814815</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="n">
-        <x:v>0.00505787037037037</x:v>
+        <x:v>0.00835648148148148</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J7" s="1" t="n">
-        <x:v>0.329606481481481</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="n">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>0.207071759259259</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>0.538101851851852</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="n">
-        <x:v>0.00356481481481481</x:v>
-      </x:c>
-      <x:c r="J8" s="1" t="n">
-        <x:v>0.331030092592593</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="n">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>0.207175925925926</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>0.533854166666667</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="n">
-        <x:v>0.0078125</x:v>
-      </x:c>
-      <x:c r="J9" s="1" t="n">
-        <x:v>0.326678240740741</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="n">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>0.207280092592593</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>0.537974537037037</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="n">
-        <x:v>0.00369212962962963</x:v>
-      </x:c>
-      <x:c r="J10" s="1" t="n">
-        <x:v>0.330694444444444</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="n">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>0.20755787037037</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>0.5365625</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="n">
-        <x:v>0.00510416666666667</x:v>
-      </x:c>
-      <x:c r="J11" s="1" t="n">
-        <x:v>0.32900462962963</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="n">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>0.207673611111111</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>0.53875</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="n">
-        <x:v>0.00291666666666667</x:v>
-      </x:c>
-      <x:c r="J12" s="1" t="n">
-        <x:v>0.331076388888889</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>0.2078125</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>0.538449074074074</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="n">
-        <x:v>0.00321759259259259</x:v>
-      </x:c>
-      <x:c r="J13" s="1" t="n">
-        <x:v>0.330636574074074</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="n">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>0.207916666666667</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>0.537789351851852</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="n">
-        <x:v>0.00387731481481481</x:v>
-      </x:c>
-      <x:c r="J14" s="1" t="n">
-        <x:v>0.329872685185185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="n">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>0.208333333333333</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>0.541666666666667</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>0.208148148148148</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>0.538553240740741</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="n">
-        <x:v>0.00311342592592593</x:v>
-      </x:c>
-      <x:c r="J15" s="1" t="n">
-        <x:v>0.330405092592593</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
